--- a/oecp/conf/excel_template/template.xlsx
+++ b/oecp/conf/excel_template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18575" windowHeight="9947"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>OSV认证报告</t>
   </si>
@@ -34,9 +34,6 @@
     <t>checksum</t>
   </si>
   <si>
-    <t>基于openEuler的版本</t>
-  </si>
-  <si>
     <t>认证维度</t>
   </si>
   <si>
@@ -73,31 +70,16 @@
     <t>内核KABI接口</t>
   </si>
   <si>
-    <t>OSV内核KABI接口白名单与openEuler内核KABI接口白名单一致性比例</t>
-  </si>
-  <si>
     <t>用户态ABI接口</t>
   </si>
   <si>
-    <t>OSV软件包ABI接口与openEuler软件包ABI一致性比例</t>
-  </si>
-  <si>
     <t>Service默认配置</t>
   </si>
   <si>
-    <t>OSV软件包Service文件与openEuler软件包Service文件一致性比例</t>
-  </si>
-  <si>
     <t>软件包默认配置</t>
   </si>
   <si>
-    <t>OSV软件包配置文件与openEuler软件包配置文件一致性比例</t>
-  </si>
-  <si>
     <t>内核特性配置</t>
-  </si>
-  <si>
-    <t>OSV的内核配置与openEuler一致性比例</t>
   </si>
   <si>
     <t>平台验证</t>
@@ -132,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -196,6 +178,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -205,35 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,60 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -309,43 +322,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -374,37 +356,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,145 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,6 +861,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,6 +885,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -909,45 +930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -961,148 +943,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1511,18 +1493,18 @@
   <sheetPr/>
   <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="14.1287878787879" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="72.1287878787879" style="2" customWidth="1"/>
+    <col min="4" max="4" width="72.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="46.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.8787878787879" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="75.95" customHeight="1" spans="2:7">
@@ -1579,9 +1561,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="8"/>
     </row>
@@ -1591,46 +1571,46 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:12">
       <c r="B9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="D9" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>14</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
       <c r="L9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B10" s="32"/>
       <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="30"/>
@@ -1639,11 +1619,9 @@
     <row r="11" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B11" s="32"/>
       <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="29"/>
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
@@ -1651,11 +1629,9 @@
     <row r="12" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B12" s="32"/>
       <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D12" s="10"/>
       <c r="E12" s="29"/>
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
@@ -1663,11 +1639,9 @@
     <row r="13" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B13" s="32"/>
       <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="29"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
@@ -1675,11 +1649,9 @@
     <row r="14" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B14" s="32"/>
       <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="29"/>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
@@ -1687,24 +1659,22 @@
     <row r="15" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B15" s="32"/>
       <c r="C15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B16" s="34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="30"/>
@@ -1713,10 +1683,10 @@
     <row r="17" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B17" s="35"/>
       <c r="C17" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
@@ -1725,10 +1695,10 @@
     <row r="18" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B18" s="35"/>
       <c r="C18" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="30"/>
@@ -1737,10 +1707,10 @@
     <row r="19" s="1" customFormat="1" ht="45.95" customHeight="1" spans="2:7">
       <c r="B19" s="36"/>
       <c r="C19" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>

--- a/oecp/conf/excel_template/template.xlsx
+++ b/oecp/conf/excel_template/template.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>OSV认证报告</t>
+    <t>OSV技术测评报告</t>
   </si>
   <si>
     <t>Compatible</t>
@@ -34,7 +34,7 @@
     <t>checksum</t>
   </si>
   <si>
-    <t>认证维度</t>
+    <t>测评维度</t>
   </si>
   <si>
     <t>检测项</t>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -178,10 +178,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,7 +203,83 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,14 +300,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,90 +328,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -356,181 +356,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,6 +850,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -861,15 +870,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,6 +885,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -899,192 +938,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,8 +1493,8 @@
   <sheetPr/>
   <dimension ref="B1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
